--- a/sprints-documents/sprint3/Sprint 3 Backlog.xlsx
+++ b/sprints-documents/sprint3/Sprint 3 Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="133">
   <si>
     <t>Unique ID</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>As a Lawyer i should be able to recalculate the fees of a company establishment form after editing anything in that form, so that I am able to update the fees.</t>
+  </si>
+  <si>
+    <t>Removed from Backlog</t>
   </si>
   <si>
     <t>As a Lawyer i should be able to recalculate the fees of a company establishment form after editing anything in that form, so that I am able to update the fees.(Jest)</t>
@@ -544,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -650,14 +653,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,6 +696,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="164.43"/>
+    <col customWidth="1" min="3" max="3" width="20.71"/>
     <col customWidth="1" min="4" max="4" width="23.57"/>
     <col customWidth="1" min="5" max="5" width="25.0"/>
     <col customWidth="1" min="6" max="6" width="24.0"/>
@@ -2392,36 +2405,24 @@
       <c r="B106" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C106" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="C106" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
     </row>
     <row r="107">
       <c r="A107" s="32"/>
       <c r="B107" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D107" s="35"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
     </row>
     <row r="108">
       <c r="A108" s="32"/>
@@ -2430,10 +2431,10 @@
     </row>
     <row r="109">
       <c r="A109" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C109" s="30">
         <v>2.0</v>
@@ -2451,7 +2452,7 @@
     <row r="110">
       <c r="A110" s="32"/>
       <c r="B110" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C110" s="31">
         <v>2.0</v>
@@ -2468,12 +2469,12 @@
     </row>
     <row r="111">
       <c r="A111" s="32"/>
-      <c r="B111" s="35"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="33"/>
     </row>
     <row r="112">
-      <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
       <c r="C112" s="33"/>
     </row>
     <row r="113">
@@ -2507,7 +2508,9 @@
       <c r="C118" s="33"/>
     </row>
     <row r="119">
-      <c r="A119" s="21"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
     </row>
     <row r="120">
       <c r="A120" s="32"/>
@@ -5219,7 +5222,7 @@
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="3" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>